--- a/medicine/Pharmacie/Serment_de_Galien/Serment_de_Galien.xlsx
+++ b/medicine/Pharmacie/Serment_de_Galien/Serment_de_Galien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le serment de Galien (ou serment des apothicaires) est un texte prononcé par tout étudiant en pharmacie à la fin de la soutenance de sa thèse d'exercice. Le serment de Galien s'inspire du serment d'Hippocrate, prêté quant à lui par les futurs médecins encore aujourd'hui. Le serment de Galien aurait été transformé en « serment des apothicaires », texte composé en 1608 en latin par Jean de Renou, ancien médecin du roi Henri III, puis traduit en français par le médecin lyonnais Louis de Serres en 1624. C'est une version modernisée du texte du XVIIe siècle que les étudiants prononcent maintenant.
 </t>
@@ -511,7 +523,9 @@
           <t>Serment des apothicaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Le Serment Des Apothicaires chrétiens et craignant Dieu.
 Je jure et promets devant Dieu, Auteur et Créateur de toutes choses, unique en essence et distingué en trois Personnes éternellement bienheureuses, que j'observerai de point en point tous ces articles suivants.
@@ -562,7 +576,9 @@
           <t>Serment moderne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">« Je jure, en présence des maîtres de la faculté, des
 conseillers de l’ordre des pharmaciens et de mes
@@ -611,7 +627,9 @@
           <t>Obligations légales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, même s'il est toujours prêté par les pharmaciens à la fin de la soutenance de leur thèse d'exercice, ou lors de cérémonies spécifiques, il n'a aucune valeur juridique. En revanche, un code de déontologie des pharmaciens existe et est intégré au Code de la santé publique.
 </t>
